--- a/Deliverables/Project_4_0/Patterns List.xlsx
+++ b/Deliverables/Project_4_0/Patterns List.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_git\cs414\cs414-f17-801-enigma\Deliverables\Project_4_0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -20,9 +28,6 @@
   </si>
   <si>
     <t>Purpose</t>
-  </si>
-  <si>
-    <t>Controller</t>
   </si>
   <si>
     <t>CustomerHandler
@@ -60,79 +65,390 @@
   <si>
     <t>This pattern divides the application inot 3 separate parts - model, view and controller. The model is the domain layer which works independtly of the view. The controller is responsible for interaction between the view and the model. By implementing this pattern all the business logic resides in the domain side. Thus, the view is only responsible for displaying the data that the model provides and sending user interaction  data from the ui to the model. So if we decide, instead of a web ui we can switch to any other ui and we do not have to change our domain logic.</t>
   </si>
+  <si>
+    <t>Grasp Controller</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" activeCellId="2" sqref="A13 A13 A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.14"/>
-    <col customWidth="1" min="3" max="3" width="83.14"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="83.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -143,3036 +459,3036 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
     </row>
-    <row r="40">
+    <row r="40" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C40" s="5"/>
     </row>
-    <row r="41">
+    <row r="41" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C42" s="5"/>
     </row>
-    <row r="43">
+    <row r="43" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
     </row>
-    <row r="44">
+    <row r="44" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C44" s="5"/>
     </row>
-    <row r="45">
+    <row r="45" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
     </row>
-    <row r="46">
+    <row r="46" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C46" s="5"/>
     </row>
-    <row r="47">
+    <row r="47" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
     </row>
-    <row r="48">
+    <row r="48" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C48" s="5"/>
     </row>
-    <row r="49">
+    <row r="49" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C49" s="5"/>
     </row>
-    <row r="50">
+    <row r="50" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C50" s="5"/>
     </row>
-    <row r="51">
+    <row r="51" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C51" s="5"/>
     </row>
-    <row r="52">
+    <row r="52" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C52" s="5"/>
     </row>
-    <row r="53">
+    <row r="53" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C53" s="5"/>
     </row>
-    <row r="54">
+    <row r="54" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C54" s="5"/>
     </row>
-    <row r="55">
+    <row r="55" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
     </row>
-    <row r="56">
+    <row r="56" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C56" s="5"/>
     </row>
-    <row r="57">
+    <row r="57" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
     </row>
-    <row r="58">
+    <row r="58" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C58" s="5"/>
     </row>
-    <row r="59">
+    <row r="59" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C59" s="5"/>
     </row>
-    <row r="60">
+    <row r="60" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C60" s="5"/>
     </row>
-    <row r="61">
+    <row r="61" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C61" s="5"/>
     </row>
-    <row r="62">
+    <row r="62" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C62" s="5"/>
     </row>
-    <row r="63">
+    <row r="63" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C63" s="5"/>
     </row>
-    <row r="64">
+    <row r="64" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C64" s="5"/>
     </row>
-    <row r="65">
+    <row r="65" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C65" s="5"/>
     </row>
-    <row r="66">
+    <row r="66" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C66" s="5"/>
     </row>
-    <row r="67">
+    <row r="67" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C67" s="5"/>
     </row>
-    <row r="68">
+    <row r="68" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C68" s="5"/>
     </row>
-    <row r="69">
+    <row r="69" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C69" s="5"/>
     </row>
-    <row r="70">
+    <row r="70" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C70" s="5"/>
     </row>
-    <row r="71">
+    <row r="71" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C71" s="5"/>
     </row>
-    <row r="72">
+    <row r="72" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C72" s="5"/>
     </row>
-    <row r="73">
+    <row r="73" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C73" s="5"/>
     </row>
-    <row r="74">
+    <row r="74" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C74" s="5"/>
     </row>
-    <row r="75">
+    <row r="75" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C75" s="5"/>
     </row>
-    <row r="76">
+    <row r="76" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C76" s="5"/>
     </row>
-    <row r="77">
+    <row r="77" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C77" s="5"/>
     </row>
-    <row r="78">
+    <row r="78" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C78" s="5"/>
     </row>
-    <row r="79">
+    <row r="79" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C79" s="5"/>
     </row>
-    <row r="80">
+    <row r="80" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
     </row>
-    <row r="81">
+    <row r="81" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C81" s="5"/>
     </row>
-    <row r="82">
+    <row r="82" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C82" s="5"/>
     </row>
-    <row r="83">
+    <row r="83" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C83" s="5"/>
     </row>
-    <row r="84">
+    <row r="84" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C84" s="5"/>
     </row>
-    <row r="85">
+    <row r="85" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C85" s="5"/>
     </row>
-    <row r="86">
+    <row r="86" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C86" s="5"/>
     </row>
-    <row r="87">
+    <row r="87" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C87" s="5"/>
     </row>
-    <row r="88">
+    <row r="88" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C88" s="5"/>
     </row>
-    <row r="89">
+    <row r="89" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C89" s="5"/>
     </row>
-    <row r="90">
+    <row r="90" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C90" s="5"/>
     </row>
-    <row r="91">
+    <row r="91" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C91" s="5"/>
     </row>
-    <row r="92">
+    <row r="92" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C92" s="5"/>
     </row>
-    <row r="93">
+    <row r="93" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C93" s="5"/>
     </row>
-    <row r="94">
+    <row r="94" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C94" s="5"/>
     </row>
-    <row r="95">
+    <row r="95" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C95" s="5"/>
     </row>
-    <row r="96">
+    <row r="96" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C96" s="5"/>
     </row>
-    <row r="97">
+    <row r="97" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C97" s="5"/>
     </row>
-    <row r="98">
+    <row r="98" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C98" s="5"/>
     </row>
-    <row r="99">
+    <row r="99" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C99" s="5"/>
     </row>
-    <row r="100">
+    <row r="100" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C100" s="5"/>
     </row>
-    <row r="101">
+    <row r="101" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C101" s="5"/>
     </row>
-    <row r="102">
+    <row r="102" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C102" s="5"/>
     </row>
-    <row r="103">
+    <row r="103" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C103" s="5"/>
     </row>
-    <row r="104">
+    <row r="104" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C104" s="5"/>
     </row>
-    <row r="105">
+    <row r="105" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C105" s="5"/>
     </row>
-    <row r="106">
+    <row r="106" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C106" s="5"/>
     </row>
-    <row r="107">
+    <row r="107" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C107" s="5"/>
     </row>
-    <row r="108">
+    <row r="108" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C108" s="5"/>
     </row>
-    <row r="109">
+    <row r="109" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C109" s="5"/>
     </row>
-    <row r="110">
+    <row r="110" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C110" s="5"/>
     </row>
-    <row r="111">
+    <row r="111" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C111" s="5"/>
     </row>
-    <row r="112">
+    <row r="112" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C112" s="5"/>
     </row>
-    <row r="113">
+    <row r="113" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C113" s="5"/>
     </row>
-    <row r="114">
+    <row r="114" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C114" s="5"/>
     </row>
-    <row r="115">
+    <row r="115" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C115" s="5"/>
     </row>
-    <row r="116">
+    <row r="116" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C116" s="5"/>
     </row>
-    <row r="117">
+    <row r="117" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C117" s="5"/>
     </row>
-    <row r="118">
+    <row r="118" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C118" s="5"/>
     </row>
-    <row r="119">
+    <row r="119" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C119" s="5"/>
     </row>
-    <row r="120">
+    <row r="120" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C120" s="5"/>
     </row>
-    <row r="121">
+    <row r="121" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C121" s="5"/>
     </row>
-    <row r="122">
+    <row r="122" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C122" s="5"/>
     </row>
-    <row r="123">
+    <row r="123" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C123" s="5"/>
     </row>
-    <row r="124">
+    <row r="124" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C124" s="5"/>
     </row>
-    <row r="125">
+    <row r="125" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C125" s="5"/>
     </row>
-    <row r="126">
+    <row r="126" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C126" s="5"/>
     </row>
-    <row r="127">
+    <row r="127" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C127" s="5"/>
     </row>
-    <row r="128">
+    <row r="128" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C128" s="5"/>
     </row>
-    <row r="129">
+    <row r="129" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C129" s="5"/>
     </row>
-    <row r="130">
+    <row r="130" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C130" s="5"/>
     </row>
-    <row r="131">
+    <row r="131" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C131" s="5"/>
     </row>
-    <row r="132">
+    <row r="132" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C132" s="5"/>
     </row>
-    <row r="133">
+    <row r="133" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C133" s="5"/>
     </row>
-    <row r="134">
+    <row r="134" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C134" s="5"/>
     </row>
-    <row r="135">
+    <row r="135" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C135" s="5"/>
     </row>
-    <row r="136">
+    <row r="136" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C136" s="5"/>
     </row>
-    <row r="137">
+    <row r="137" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C137" s="5"/>
     </row>
-    <row r="138">
+    <row r="138" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C138" s="5"/>
     </row>
-    <row r="139">
+    <row r="139" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C139" s="5"/>
     </row>
-    <row r="140">
+    <row r="140" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C140" s="5"/>
     </row>
-    <row r="141">
+    <row r="141" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C141" s="5"/>
     </row>
-    <row r="142">
+    <row r="142" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C142" s="5"/>
     </row>
-    <row r="143">
+    <row r="143" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C143" s="5"/>
     </row>
-    <row r="144">
+    <row r="144" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C144" s="5"/>
     </row>
-    <row r="145">
+    <row r="145" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C145" s="5"/>
     </row>
-    <row r="146">
+    <row r="146" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C146" s="5"/>
     </row>
-    <row r="147">
+    <row r="147" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C147" s="5"/>
     </row>
-    <row r="148">
+    <row r="148" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C148" s="5"/>
     </row>
-    <row r="149">
+    <row r="149" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C149" s="5"/>
     </row>
-    <row r="150">
+    <row r="150" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C150" s="5"/>
     </row>
-    <row r="151">
+    <row r="151" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C151" s="5"/>
     </row>
-    <row r="152">
+    <row r="152" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C152" s="5"/>
     </row>
-    <row r="153">
+    <row r="153" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C153" s="5"/>
     </row>
-    <row r="154">
+    <row r="154" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C154" s="5"/>
     </row>
-    <row r="155">
+    <row r="155" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C155" s="5"/>
     </row>
-    <row r="156">
+    <row r="156" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C156" s="5"/>
     </row>
-    <row r="157">
+    <row r="157" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C157" s="5"/>
     </row>
-    <row r="158">
+    <row r="158" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C158" s="5"/>
     </row>
-    <row r="159">
+    <row r="159" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C159" s="5"/>
     </row>
-    <row r="160">
+    <row r="160" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C160" s="5"/>
     </row>
-    <row r="161">
+    <row r="161" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C161" s="5"/>
     </row>
-    <row r="162">
+    <row r="162" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C162" s="5"/>
     </row>
-    <row r="163">
+    <row r="163" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C163" s="5"/>
     </row>
-    <row r="164">
+    <row r="164" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C164" s="5"/>
     </row>
-    <row r="165">
+    <row r="165" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C165" s="5"/>
     </row>
-    <row r="166">
+    <row r="166" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C166" s="5"/>
     </row>
-    <row r="167">
+    <row r="167" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C167" s="5"/>
     </row>
-    <row r="168">
+    <row r="168" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C168" s="5"/>
     </row>
-    <row r="169">
+    <row r="169" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C169" s="5"/>
     </row>
-    <row r="170">
+    <row r="170" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C170" s="5"/>
     </row>
-    <row r="171">
+    <row r="171" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C171" s="5"/>
     </row>
-    <row r="172">
+    <row r="172" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C172" s="5"/>
     </row>
-    <row r="173">
+    <row r="173" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C173" s="5"/>
     </row>
-    <row r="174">
+    <row r="174" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C174" s="5"/>
     </row>
-    <row r="175">
+    <row r="175" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C175" s="5"/>
     </row>
-    <row r="176">
+    <row r="176" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C176" s="5"/>
     </row>
-    <row r="177">
+    <row r="177" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C177" s="5"/>
     </row>
-    <row r="178">
+    <row r="178" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C178" s="5"/>
     </row>
-    <row r="179">
+    <row r="179" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C179" s="5"/>
     </row>
-    <row r="180">
+    <row r="180" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C180" s="5"/>
     </row>
-    <row r="181">
+    <row r="181" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C181" s="5"/>
     </row>
-    <row r="182">
+    <row r="182" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C182" s="5"/>
     </row>
-    <row r="183">
+    <row r="183" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C183" s="5"/>
     </row>
-    <row r="184">
+    <row r="184" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C184" s="5"/>
     </row>
-    <row r="185">
+    <row r="185" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C185" s="5"/>
     </row>
-    <row r="186">
+    <row r="186" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C186" s="5"/>
     </row>
-    <row r="187">
+    <row r="187" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C187" s="5"/>
     </row>
-    <row r="188">
+    <row r="188" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C188" s="5"/>
     </row>
-    <row r="189">
+    <row r="189" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C189" s="5"/>
     </row>
-    <row r="190">
+    <row r="190" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C190" s="5"/>
     </row>
-    <row r="191">
+    <row r="191" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C191" s="5"/>
     </row>
-    <row r="192">
+    <row r="192" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C192" s="5"/>
     </row>
-    <row r="193">
+    <row r="193" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C193" s="5"/>
     </row>
-    <row r="194">
+    <row r="194" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C194" s="5"/>
     </row>
-    <row r="195">
+    <row r="195" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C195" s="5"/>
     </row>
-    <row r="196">
+    <row r="196" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C196" s="5"/>
     </row>
-    <row r="197">
+    <row r="197" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C197" s="5"/>
     </row>
-    <row r="198">
+    <row r="198" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C198" s="5"/>
     </row>
-    <row r="199">
+    <row r="199" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C199" s="5"/>
     </row>
-    <row r="200">
+    <row r="200" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C200" s="5"/>
     </row>
-    <row r="201">
+    <row r="201" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C201" s="5"/>
     </row>
-    <row r="202">
+    <row r="202" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C202" s="5"/>
     </row>
-    <row r="203">
+    <row r="203" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C203" s="5"/>
     </row>
-    <row r="204">
+    <row r="204" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C204" s="5"/>
     </row>
-    <row r="205">
+    <row r="205" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C205" s="5"/>
     </row>
-    <row r="206">
+    <row r="206" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C206" s="5"/>
     </row>
-    <row r="207">
+    <row r="207" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C207" s="5"/>
     </row>
-    <row r="208">
+    <row r="208" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C208" s="5"/>
     </row>
-    <row r="209">
+    <row r="209" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C209" s="5"/>
     </row>
-    <row r="210">
+    <row r="210" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C210" s="5"/>
     </row>
-    <row r="211">
+    <row r="211" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C211" s="5"/>
     </row>
-    <row r="212">
+    <row r="212" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C212" s="5"/>
     </row>
-    <row r="213">
+    <row r="213" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C213" s="5"/>
     </row>
-    <row r="214">
+    <row r="214" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C214" s="5"/>
     </row>
-    <row r="215">
+    <row r="215" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C215" s="5"/>
     </row>
-    <row r="216">
+    <row r="216" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C216" s="5"/>
     </row>
-    <row r="217">
+    <row r="217" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C217" s="5"/>
     </row>
-    <row r="218">
+    <row r="218" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C218" s="5"/>
     </row>
-    <row r="219">
+    <row r="219" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C219" s="5"/>
     </row>
-    <row r="220">
+    <row r="220" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C220" s="5"/>
     </row>
-    <row r="221">
+    <row r="221" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C221" s="5"/>
     </row>
-    <row r="222">
+    <row r="222" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C222" s="5"/>
     </row>
-    <row r="223">
+    <row r="223" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C223" s="5"/>
     </row>
-    <row r="224">
+    <row r="224" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C224" s="5"/>
     </row>
-    <row r="225">
+    <row r="225" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C225" s="5"/>
     </row>
-    <row r="226">
+    <row r="226" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C226" s="5"/>
     </row>
-    <row r="227">
+    <row r="227" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C227" s="5"/>
     </row>
-    <row r="228">
+    <row r="228" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C228" s="5"/>
     </row>
-    <row r="229">
+    <row r="229" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C229" s="5"/>
     </row>
-    <row r="230">
+    <row r="230" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C230" s="5"/>
     </row>
-    <row r="231">
+    <row r="231" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C231" s="5"/>
     </row>
-    <row r="232">
+    <row r="232" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C232" s="5"/>
     </row>
-    <row r="233">
+    <row r="233" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C233" s="5"/>
     </row>
-    <row r="234">
+    <row r="234" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C234" s="5"/>
     </row>
-    <row r="235">
+    <row r="235" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C235" s="5"/>
     </row>
-    <row r="236">
+    <row r="236" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C236" s="5"/>
     </row>
-    <row r="237">
+    <row r="237" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C237" s="5"/>
     </row>
-    <row r="238">
+    <row r="238" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C238" s="5"/>
     </row>
-    <row r="239">
+    <row r="239" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C239" s="5"/>
     </row>
-    <row r="240">
+    <row r="240" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C240" s="5"/>
     </row>
-    <row r="241">
+    <row r="241" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C241" s="5"/>
     </row>
-    <row r="242">
+    <row r="242" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C242" s="5"/>
     </row>
-    <row r="243">
+    <row r="243" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C243" s="5"/>
     </row>
-    <row r="244">
+    <row r="244" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C244" s="5"/>
     </row>
-    <row r="245">
+    <row r="245" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C245" s="5"/>
     </row>
-    <row r="246">
+    <row r="246" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C246" s="5"/>
     </row>
-    <row r="247">
+    <row r="247" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C247" s="5"/>
     </row>
-    <row r="248">
+    <row r="248" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C248" s="5"/>
     </row>
-    <row r="249">
+    <row r="249" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C249" s="5"/>
     </row>
-    <row r="250">
+    <row r="250" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C250" s="5"/>
     </row>
-    <row r="251">
+    <row r="251" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C251" s="5"/>
     </row>
-    <row r="252">
+    <row r="252" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C252" s="5"/>
     </row>
-    <row r="253">
+    <row r="253" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C253" s="5"/>
     </row>
-    <row r="254">
+    <row r="254" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C254" s="5"/>
     </row>
-    <row r="255">
+    <row r="255" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C255" s="5"/>
     </row>
-    <row r="256">
+    <row r="256" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C256" s="5"/>
     </row>
-    <row r="257">
+    <row r="257" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C257" s="5"/>
     </row>
-    <row r="258">
+    <row r="258" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C258" s="5"/>
     </row>
-    <row r="259">
+    <row r="259" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C259" s="5"/>
     </row>
-    <row r="260">
+    <row r="260" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C260" s="5"/>
     </row>
-    <row r="261">
+    <row r="261" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C261" s="5"/>
     </row>
-    <row r="262">
+    <row r="262" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C262" s="5"/>
     </row>
-    <row r="263">
+    <row r="263" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C263" s="5"/>
     </row>
-    <row r="264">
+    <row r="264" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C264" s="5"/>
     </row>
-    <row r="265">
+    <row r="265" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C265" s="5"/>
     </row>
-    <row r="266">
+    <row r="266" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C266" s="5"/>
     </row>
-    <row r="267">
+    <row r="267" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C267" s="5"/>
     </row>
-    <row r="268">
+    <row r="268" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C268" s="5"/>
     </row>
-    <row r="269">
+    <row r="269" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C269" s="5"/>
     </row>
-    <row r="270">
+    <row r="270" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C270" s="5"/>
     </row>
-    <row r="271">
+    <row r="271" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C271" s="5"/>
     </row>
-    <row r="272">
+    <row r="272" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C272" s="5"/>
     </row>
-    <row r="273">
+    <row r="273" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C273" s="5"/>
     </row>
-    <row r="274">
+    <row r="274" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C274" s="5"/>
     </row>
-    <row r="275">
+    <row r="275" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C275" s="5"/>
     </row>
-    <row r="276">
+    <row r="276" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C276" s="5"/>
     </row>
-    <row r="277">
+    <row r="277" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C277" s="5"/>
     </row>
-    <row r="278">
+    <row r="278" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C278" s="5"/>
     </row>
-    <row r="279">
+    <row r="279" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C279" s="5"/>
     </row>
-    <row r="280">
+    <row r="280" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C280" s="5"/>
     </row>
-    <row r="281">
+    <row r="281" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C281" s="5"/>
     </row>
-    <row r="282">
+    <row r="282" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C282" s="5"/>
     </row>
-    <row r="283">
+    <row r="283" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C283" s="5"/>
     </row>
-    <row r="284">
+    <row r="284" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C284" s="5"/>
     </row>
-    <row r="285">
+    <row r="285" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C285" s="5"/>
     </row>
-    <row r="286">
+    <row r="286" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C286" s="5"/>
     </row>
-    <row r="287">
+    <row r="287" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C287" s="5"/>
     </row>
-    <row r="288">
+    <row r="288" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C288" s="5"/>
     </row>
-    <row r="289">
+    <row r="289" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C289" s="5"/>
     </row>
-    <row r="290">
+    <row r="290" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C290" s="5"/>
     </row>
-    <row r="291">
+    <row r="291" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C291" s="5"/>
     </row>
-    <row r="292">
+    <row r="292" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C292" s="5"/>
     </row>
-    <row r="293">
+    <row r="293" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C293" s="5"/>
     </row>
-    <row r="294">
+    <row r="294" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C294" s="5"/>
     </row>
-    <row r="295">
+    <row r="295" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C295" s="5"/>
     </row>
-    <row r="296">
+    <row r="296" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C296" s="5"/>
     </row>
-    <row r="297">
+    <row r="297" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C297" s="5"/>
     </row>
-    <row r="298">
+    <row r="298" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C298" s="5"/>
     </row>
-    <row r="299">
+    <row r="299" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C299" s="5"/>
     </row>
-    <row r="300">
+    <row r="300" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C300" s="5"/>
     </row>
-    <row r="301">
+    <row r="301" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C301" s="5"/>
     </row>
-    <row r="302">
+    <row r="302" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C302" s="5"/>
     </row>
-    <row r="303">
+    <row r="303" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C303" s="5"/>
     </row>
-    <row r="304">
+    <row r="304" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C304" s="5"/>
     </row>
-    <row r="305">
+    <row r="305" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C305" s="5"/>
     </row>
-    <row r="306">
+    <row r="306" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C306" s="5"/>
     </row>
-    <row r="307">
+    <row r="307" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C307" s="5"/>
     </row>
-    <row r="308">
+    <row r="308" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C308" s="5"/>
     </row>
-    <row r="309">
+    <row r="309" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C309" s="5"/>
     </row>
-    <row r="310">
+    <row r="310" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C310" s="5"/>
     </row>
-    <row r="311">
+    <row r="311" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C311" s="5"/>
     </row>
-    <row r="312">
+    <row r="312" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C312" s="5"/>
     </row>
-    <row r="313">
+    <row r="313" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C313" s="5"/>
     </row>
-    <row r="314">
+    <row r="314" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C314" s="5"/>
     </row>
-    <row r="315">
+    <row r="315" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C315" s="5"/>
     </row>
-    <row r="316">
+    <row r="316" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C316" s="5"/>
     </row>
-    <row r="317">
+    <row r="317" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C317" s="5"/>
     </row>
-    <row r="318">
+    <row r="318" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C318" s="5"/>
     </row>
-    <row r="319">
+    <row r="319" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C319" s="5"/>
     </row>
-    <row r="320">
+    <row r="320" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C320" s="5"/>
     </row>
-    <row r="321">
+    <row r="321" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C321" s="5"/>
     </row>
-    <row r="322">
+    <row r="322" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C322" s="5"/>
     </row>
-    <row r="323">
+    <row r="323" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C323" s="5"/>
     </row>
-    <row r="324">
+    <row r="324" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C324" s="5"/>
     </row>
-    <row r="325">
+    <row r="325" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C325" s="5"/>
     </row>
-    <row r="326">
+    <row r="326" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C326" s="5"/>
     </row>
-    <row r="327">
+    <row r="327" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C327" s="5"/>
     </row>
-    <row r="328">
+    <row r="328" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C328" s="5"/>
     </row>
-    <row r="329">
+    <row r="329" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C329" s="5"/>
     </row>
-    <row r="330">
+    <row r="330" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C330" s="5"/>
     </row>
-    <row r="331">
+    <row r="331" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C331" s="5"/>
     </row>
-    <row r="332">
+    <row r="332" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C332" s="5"/>
     </row>
-    <row r="333">
+    <row r="333" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C333" s="5"/>
     </row>
-    <row r="334">
+    <row r="334" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C334" s="5"/>
     </row>
-    <row r="335">
+    <row r="335" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C335" s="5"/>
     </row>
-    <row r="336">
+    <row r="336" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C336" s="5"/>
     </row>
-    <row r="337">
+    <row r="337" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C337" s="5"/>
     </row>
-    <row r="338">
+    <row r="338" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C338" s="5"/>
     </row>
-    <row r="339">
+    <row r="339" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C339" s="5"/>
     </row>
-    <row r="340">
+    <row r="340" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C340" s="5"/>
     </row>
-    <row r="341">
+    <row r="341" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C341" s="5"/>
     </row>
-    <row r="342">
+    <row r="342" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C342" s="5"/>
     </row>
-    <row r="343">
+    <row r="343" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C343" s="5"/>
     </row>
-    <row r="344">
+    <row r="344" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C344" s="5"/>
     </row>
-    <row r="345">
+    <row r="345" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C345" s="5"/>
     </row>
-    <row r="346">
+    <row r="346" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C346" s="5"/>
     </row>
-    <row r="347">
+    <row r="347" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C347" s="5"/>
     </row>
-    <row r="348">
+    <row r="348" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C348" s="5"/>
     </row>
-    <row r="349">
+    <row r="349" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C349" s="5"/>
     </row>
-    <row r="350">
+    <row r="350" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C350" s="5"/>
     </row>
-    <row r="351">
+    <row r="351" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C351" s="5"/>
     </row>
-    <row r="352">
+    <row r="352" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C352" s="5"/>
     </row>
-    <row r="353">
+    <row r="353" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C353" s="5"/>
     </row>
-    <row r="354">
+    <row r="354" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C354" s="5"/>
     </row>
-    <row r="355">
+    <row r="355" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C355" s="5"/>
     </row>
-    <row r="356">
+    <row r="356" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C356" s="5"/>
     </row>
-    <row r="357">
+    <row r="357" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C357" s="5"/>
     </row>
-    <row r="358">
+    <row r="358" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C358" s="5"/>
     </row>
-    <row r="359">
+    <row r="359" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C359" s="5"/>
     </row>
-    <row r="360">
+    <row r="360" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C360" s="5"/>
     </row>
-    <row r="361">
+    <row r="361" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C361" s="5"/>
     </row>
-    <row r="362">
+    <row r="362" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C362" s="5"/>
     </row>
-    <row r="363">
+    <row r="363" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C363" s="5"/>
     </row>
-    <row r="364">
+    <row r="364" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C364" s="5"/>
     </row>
-    <row r="365">
+    <row r="365" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C365" s="5"/>
     </row>
-    <row r="366">
+    <row r="366" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C366" s="5"/>
     </row>
-    <row r="367">
+    <row r="367" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C367" s="5"/>
     </row>
-    <row r="368">
+    <row r="368" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C368" s="5"/>
     </row>
-    <row r="369">
+    <row r="369" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C369" s="5"/>
     </row>
-    <row r="370">
+    <row r="370" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C370" s="5"/>
     </row>
-    <row r="371">
+    <row r="371" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C371" s="5"/>
     </row>
-    <row r="372">
+    <row r="372" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C372" s="5"/>
     </row>
-    <row r="373">
+    <row r="373" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C373" s="5"/>
     </row>
-    <row r="374">
+    <row r="374" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C374" s="5"/>
     </row>
-    <row r="375">
+    <row r="375" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C375" s="5"/>
     </row>
-    <row r="376">
+    <row r="376" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C376" s="5"/>
     </row>
-    <row r="377">
+    <row r="377" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C377" s="5"/>
     </row>
-    <row r="378">
+    <row r="378" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C378" s="5"/>
     </row>
-    <row r="379">
+    <row r="379" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C379" s="5"/>
     </row>
-    <row r="380">
+    <row r="380" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C380" s="5"/>
     </row>
-    <row r="381">
+    <row r="381" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C381" s="5"/>
     </row>
-    <row r="382">
+    <row r="382" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C382" s="5"/>
     </row>
-    <row r="383">
+    <row r="383" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C383" s="5"/>
     </row>
-    <row r="384">
+    <row r="384" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C384" s="5"/>
     </row>
-    <row r="385">
+    <row r="385" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C385" s="5"/>
     </row>
-    <row r="386">
+    <row r="386" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C386" s="5"/>
     </row>
-    <row r="387">
+    <row r="387" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C387" s="5"/>
     </row>
-    <row r="388">
+    <row r="388" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C388" s="5"/>
     </row>
-    <row r="389">
+    <row r="389" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C389" s="5"/>
     </row>
-    <row r="390">
+    <row r="390" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C390" s="5"/>
     </row>
-    <row r="391">
+    <row r="391" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C391" s="5"/>
     </row>
-    <row r="392">
+    <row r="392" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C392" s="5"/>
     </row>
-    <row r="393">
+    <row r="393" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C393" s="5"/>
     </row>
-    <row r="394">
+    <row r="394" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C394" s="5"/>
     </row>
-    <row r="395">
+    <row r="395" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C395" s="5"/>
     </row>
-    <row r="396">
+    <row r="396" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C396" s="5"/>
     </row>
-    <row r="397">
+    <row r="397" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C397" s="5"/>
     </row>
-    <row r="398">
+    <row r="398" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C398" s="5"/>
     </row>
-    <row r="399">
+    <row r="399" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C399" s="5"/>
     </row>
-    <row r="400">
+    <row r="400" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C400" s="5"/>
     </row>
-    <row r="401">
+    <row r="401" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C401" s="5"/>
     </row>
-    <row r="402">
+    <row r="402" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C402" s="5"/>
     </row>
-    <row r="403">
+    <row r="403" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C403" s="5"/>
     </row>
-    <row r="404">
+    <row r="404" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C404" s="5"/>
     </row>
-    <row r="405">
+    <row r="405" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C405" s="5"/>
     </row>
-    <row r="406">
+    <row r="406" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C406" s="5"/>
     </row>
-    <row r="407">
+    <row r="407" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C407" s="5"/>
     </row>
-    <row r="408">
+    <row r="408" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C408" s="5"/>
     </row>
-    <row r="409">
+    <row r="409" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C409" s="5"/>
     </row>
-    <row r="410">
+    <row r="410" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C410" s="5"/>
     </row>
-    <row r="411">
+    <row r="411" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C411" s="5"/>
     </row>
-    <row r="412">
+    <row r="412" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C412" s="5"/>
     </row>
-    <row r="413">
+    <row r="413" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C413" s="5"/>
     </row>
-    <row r="414">
+    <row r="414" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C414" s="5"/>
     </row>
-    <row r="415">
+    <row r="415" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C415" s="5"/>
     </row>
-    <row r="416">
+    <row r="416" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C416" s="5"/>
     </row>
-    <row r="417">
+    <row r="417" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C417" s="5"/>
     </row>
-    <row r="418">
+    <row r="418" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C418" s="5"/>
     </row>
-    <row r="419">
+    <row r="419" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C419" s="5"/>
     </row>
-    <row r="420">
+    <row r="420" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C420" s="5"/>
     </row>
-    <row r="421">
+    <row r="421" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C421" s="5"/>
     </row>
-    <row r="422">
+    <row r="422" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C422" s="5"/>
     </row>
-    <row r="423">
+    <row r="423" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C423" s="5"/>
     </row>
-    <row r="424">
+    <row r="424" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C424" s="5"/>
     </row>
-    <row r="425">
+    <row r="425" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C425" s="5"/>
     </row>
-    <row r="426">
+    <row r="426" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C426" s="5"/>
     </row>
-    <row r="427">
+    <row r="427" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C427" s="5"/>
     </row>
-    <row r="428">
+    <row r="428" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C428" s="5"/>
     </row>
-    <row r="429">
+    <row r="429" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C429" s="5"/>
     </row>
-    <row r="430">
+    <row r="430" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C430" s="5"/>
     </row>
-    <row r="431">
+    <row r="431" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C431" s="5"/>
     </row>
-    <row r="432">
+    <row r="432" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C432" s="5"/>
     </row>
-    <row r="433">
+    <row r="433" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C433" s="5"/>
     </row>
-    <row r="434">
+    <row r="434" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C434" s="5"/>
     </row>
-    <row r="435">
+    <row r="435" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C435" s="5"/>
     </row>
-    <row r="436">
+    <row r="436" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C436" s="5"/>
     </row>
-    <row r="437">
+    <row r="437" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C437" s="5"/>
     </row>
-    <row r="438">
+    <row r="438" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C438" s="5"/>
     </row>
-    <row r="439">
+    <row r="439" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C439" s="5"/>
     </row>
-    <row r="440">
+    <row r="440" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C440" s="5"/>
     </row>
-    <row r="441">
+    <row r="441" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C441" s="5"/>
     </row>
-    <row r="442">
+    <row r="442" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C442" s="5"/>
     </row>
-    <row r="443">
+    <row r="443" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C443" s="5"/>
     </row>
-    <row r="444">
+    <row r="444" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C444" s="5"/>
     </row>
-    <row r="445">
+    <row r="445" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C445" s="5"/>
     </row>
-    <row r="446">
+    <row r="446" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C446" s="5"/>
     </row>
-    <row r="447">
+    <row r="447" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C447" s="5"/>
     </row>
-    <row r="448">
+    <row r="448" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C448" s="5"/>
     </row>
-    <row r="449">
+    <row r="449" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C449" s="5"/>
     </row>
-    <row r="450">
+    <row r="450" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C450" s="5"/>
     </row>
-    <row r="451">
+    <row r="451" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C451" s="5"/>
     </row>
-    <row r="452">
+    <row r="452" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C452" s="5"/>
     </row>
-    <row r="453">
+    <row r="453" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C453" s="5"/>
     </row>
-    <row r="454">
+    <row r="454" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C454" s="5"/>
     </row>
-    <row r="455">
+    <row r="455" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C455" s="5"/>
     </row>
-    <row r="456">
+    <row r="456" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C456" s="5"/>
     </row>
-    <row r="457">
+    <row r="457" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C457" s="5"/>
     </row>
-    <row r="458">
+    <row r="458" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C458" s="5"/>
     </row>
-    <row r="459">
+    <row r="459" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C459" s="5"/>
     </row>
-    <row r="460">
+    <row r="460" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C460" s="5"/>
     </row>
-    <row r="461">
+    <row r="461" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C461" s="5"/>
     </row>
-    <row r="462">
+    <row r="462" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C462" s="5"/>
     </row>
-    <row r="463">
+    <row r="463" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C463" s="5"/>
     </row>
-    <row r="464">
+    <row r="464" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C464" s="5"/>
     </row>
-    <row r="465">
+    <row r="465" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C465" s="5"/>
     </row>
-    <row r="466">
+    <row r="466" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C466" s="5"/>
     </row>
-    <row r="467">
+    <row r="467" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C467" s="5"/>
     </row>
-    <row r="468">
+    <row r="468" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C468" s="5"/>
     </row>
-    <row r="469">
+    <row r="469" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C469" s="5"/>
     </row>
-    <row r="470">
+    <row r="470" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C470" s="5"/>
     </row>
-    <row r="471">
+    <row r="471" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C471" s="5"/>
     </row>
-    <row r="472">
+    <row r="472" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C472" s="5"/>
     </row>
-    <row r="473">
+    <row r="473" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C473" s="5"/>
     </row>
-    <row r="474">
+    <row r="474" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C474" s="5"/>
     </row>
-    <row r="475">
+    <row r="475" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C475" s="5"/>
     </row>
-    <row r="476">
+    <row r="476" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C476" s="5"/>
     </row>
-    <row r="477">
+    <row r="477" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C477" s="5"/>
     </row>
-    <row r="478">
+    <row r="478" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C478" s="5"/>
     </row>
-    <row r="479">
+    <row r="479" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C479" s="5"/>
     </row>
-    <row r="480">
+    <row r="480" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C480" s="5"/>
     </row>
-    <row r="481">
+    <row r="481" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C481" s="5"/>
     </row>
-    <row r="482">
+    <row r="482" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C482" s="5"/>
     </row>
-    <row r="483">
+    <row r="483" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C483" s="5"/>
     </row>
-    <row r="484">
+    <row r="484" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C484" s="5"/>
     </row>
-    <row r="485">
+    <row r="485" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C485" s="5"/>
     </row>
-    <row r="486">
+    <row r="486" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C486" s="5"/>
     </row>
-    <row r="487">
+    <row r="487" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C487" s="5"/>
     </row>
-    <row r="488">
+    <row r="488" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C488" s="5"/>
     </row>
-    <row r="489">
+    <row r="489" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C489" s="5"/>
     </row>
-    <row r="490">
+    <row r="490" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C490" s="5"/>
     </row>
-    <row r="491">
+    <row r="491" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C491" s="5"/>
     </row>
-    <row r="492">
+    <row r="492" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C492" s="5"/>
     </row>
-    <row r="493">
+    <row r="493" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C493" s="5"/>
     </row>
-    <row r="494">
+    <row r="494" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C494" s="5"/>
     </row>
-    <row r="495">
+    <row r="495" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C495" s="5"/>
     </row>
-    <row r="496">
+    <row r="496" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C496" s="5"/>
     </row>
-    <row r="497">
+    <row r="497" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C497" s="5"/>
     </row>
-    <row r="498">
+    <row r="498" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C498" s="5"/>
     </row>
-    <row r="499">
+    <row r="499" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C499" s="5"/>
     </row>
-    <row r="500">
+    <row r="500" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C500" s="5"/>
     </row>
-    <row r="501">
+    <row r="501" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C501" s="5"/>
     </row>
-    <row r="502">
+    <row r="502" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C502" s="5"/>
     </row>
-    <row r="503">
+    <row r="503" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C503" s="5"/>
     </row>
-    <row r="504">
+    <row r="504" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C504" s="5"/>
     </row>
-    <row r="505">
+    <row r="505" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C505" s="5"/>
     </row>
-    <row r="506">
+    <row r="506" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C506" s="5"/>
     </row>
-    <row r="507">
+    <row r="507" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C507" s="5"/>
     </row>
-    <row r="508">
+    <row r="508" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C508" s="5"/>
     </row>
-    <row r="509">
+    <row r="509" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C509" s="5"/>
     </row>
-    <row r="510">
+    <row r="510" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C510" s="5"/>
     </row>
-    <row r="511">
+    <row r="511" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C511" s="5"/>
     </row>
-    <row r="512">
+    <row r="512" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C512" s="5"/>
     </row>
-    <row r="513">
+    <row r="513" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C513" s="5"/>
     </row>
-    <row r="514">
+    <row r="514" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C514" s="5"/>
     </row>
-    <row r="515">
+    <row r="515" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C515" s="5"/>
     </row>
-    <row r="516">
+    <row r="516" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C516" s="5"/>
     </row>
-    <row r="517">
+    <row r="517" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C517" s="5"/>
     </row>
-    <row r="518">
+    <row r="518" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C518" s="5"/>
     </row>
-    <row r="519">
+    <row r="519" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C519" s="5"/>
     </row>
-    <row r="520">
+    <row r="520" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C520" s="5"/>
     </row>
-    <row r="521">
+    <row r="521" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C521" s="5"/>
     </row>
-    <row r="522">
+    <row r="522" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C522" s="5"/>
     </row>
-    <row r="523">
+    <row r="523" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C523" s="5"/>
     </row>
-    <row r="524">
+    <row r="524" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C524" s="5"/>
     </row>
-    <row r="525">
+    <row r="525" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C525" s="5"/>
     </row>
-    <row r="526">
+    <row r="526" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C526" s="5"/>
     </row>
-    <row r="527">
+    <row r="527" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C527" s="5"/>
     </row>
-    <row r="528">
+    <row r="528" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C528" s="5"/>
     </row>
-    <row r="529">
+    <row r="529" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C529" s="5"/>
     </row>
-    <row r="530">
+    <row r="530" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C530" s="5"/>
     </row>
-    <row r="531">
+    <row r="531" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C531" s="5"/>
     </row>
-    <row r="532">
+    <row r="532" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C532" s="5"/>
     </row>
-    <row r="533">
+    <row r="533" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C533" s="5"/>
     </row>
-    <row r="534">
+    <row r="534" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C534" s="5"/>
     </row>
-    <row r="535">
+    <row r="535" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C535" s="5"/>
     </row>
-    <row r="536">
+    <row r="536" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C536" s="5"/>
     </row>
-    <row r="537">
+    <row r="537" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C537" s="5"/>
     </row>
-    <row r="538">
+    <row r="538" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C538" s="5"/>
     </row>
-    <row r="539">
+    <row r="539" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C539" s="5"/>
     </row>
-    <row r="540">
+    <row r="540" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C540" s="5"/>
     </row>
-    <row r="541">
+    <row r="541" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C541" s="5"/>
     </row>
-    <row r="542">
+    <row r="542" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C542" s="5"/>
     </row>
-    <row r="543">
+    <row r="543" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C543" s="5"/>
     </row>
-    <row r="544">
+    <row r="544" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C544" s="5"/>
     </row>
-    <row r="545">
+    <row r="545" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C545" s="5"/>
     </row>
-    <row r="546">
+    <row r="546" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C546" s="5"/>
     </row>
-    <row r="547">
+    <row r="547" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C547" s="5"/>
     </row>
-    <row r="548">
+    <row r="548" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C548" s="5"/>
     </row>
-    <row r="549">
+    <row r="549" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C549" s="5"/>
     </row>
-    <row r="550">
+    <row r="550" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C550" s="5"/>
     </row>
-    <row r="551">
+    <row r="551" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C551" s="5"/>
     </row>
-    <row r="552">
+    <row r="552" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C552" s="5"/>
     </row>
-    <row r="553">
+    <row r="553" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C553" s="5"/>
     </row>
-    <row r="554">
+    <row r="554" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C554" s="5"/>
     </row>
-    <row r="555">
+    <row r="555" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C555" s="5"/>
     </row>
-    <row r="556">
+    <row r="556" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C556" s="5"/>
     </row>
-    <row r="557">
+    <row r="557" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C557" s="5"/>
     </row>
-    <row r="558">
+    <row r="558" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C558" s="5"/>
     </row>
-    <row r="559">
+    <row r="559" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C559" s="5"/>
     </row>
-    <row r="560">
+    <row r="560" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C560" s="5"/>
     </row>
-    <row r="561">
+    <row r="561" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C561" s="5"/>
     </row>
-    <row r="562">
+    <row r="562" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C562" s="5"/>
     </row>
-    <row r="563">
+    <row r="563" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C563" s="5"/>
     </row>
-    <row r="564">
+    <row r="564" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C564" s="5"/>
     </row>
-    <row r="565">
+    <row r="565" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C565" s="5"/>
     </row>
-    <row r="566">
+    <row r="566" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C566" s="5"/>
     </row>
-    <row r="567">
+    <row r="567" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C567" s="5"/>
     </row>
-    <row r="568">
+    <row r="568" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C568" s="5"/>
     </row>
-    <row r="569">
+    <row r="569" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C569" s="5"/>
     </row>
-    <row r="570">
+    <row r="570" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C570" s="5"/>
     </row>
-    <row r="571">
+    <row r="571" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C571" s="5"/>
     </row>
-    <row r="572">
+    <row r="572" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C572" s="5"/>
     </row>
-    <row r="573">
+    <row r="573" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C573" s="5"/>
     </row>
-    <row r="574">
+    <row r="574" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C574" s="5"/>
     </row>
-    <row r="575">
+    <row r="575" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C575" s="5"/>
     </row>
-    <row r="576">
+    <row r="576" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C576" s="5"/>
     </row>
-    <row r="577">
+    <row r="577" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C577" s="5"/>
     </row>
-    <row r="578">
+    <row r="578" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C578" s="5"/>
     </row>
-    <row r="579">
+    <row r="579" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C579" s="5"/>
     </row>
-    <row r="580">
+    <row r="580" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C580" s="5"/>
     </row>
-    <row r="581">
+    <row r="581" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C581" s="5"/>
     </row>
-    <row r="582">
+    <row r="582" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C582" s="5"/>
     </row>
-    <row r="583">
+    <row r="583" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C583" s="5"/>
     </row>
-    <row r="584">
+    <row r="584" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C584" s="5"/>
     </row>
-    <row r="585">
+    <row r="585" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C585" s="5"/>
     </row>
-    <row r="586">
+    <row r="586" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C586" s="5"/>
     </row>
-    <row r="587">
+    <row r="587" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C587" s="5"/>
     </row>
-    <row r="588">
+    <row r="588" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C588" s="5"/>
     </row>
-    <row r="589">
+    <row r="589" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C589" s="5"/>
     </row>
-    <row r="590">
+    <row r="590" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C590" s="5"/>
     </row>
-    <row r="591">
+    <row r="591" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C591" s="5"/>
     </row>
-    <row r="592">
+    <row r="592" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C592" s="5"/>
     </row>
-    <row r="593">
+    <row r="593" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C593" s="5"/>
     </row>
-    <row r="594">
+    <row r="594" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C594" s="5"/>
     </row>
-    <row r="595">
+    <row r="595" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C595" s="5"/>
     </row>
-    <row r="596">
+    <row r="596" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C596" s="5"/>
     </row>
-    <row r="597">
+    <row r="597" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C597" s="5"/>
     </row>
-    <row r="598">
+    <row r="598" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C598" s="5"/>
     </row>
-    <row r="599">
+    <row r="599" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C599" s="5"/>
     </row>
-    <row r="600">
+    <row r="600" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C600" s="5"/>
     </row>
-    <row r="601">
+    <row r="601" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C601" s="5"/>
     </row>
-    <row r="602">
+    <row r="602" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C602" s="5"/>
     </row>
-    <row r="603">
+    <row r="603" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C603" s="5"/>
     </row>
-    <row r="604">
+    <row r="604" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C604" s="5"/>
     </row>
-    <row r="605">
+    <row r="605" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C605" s="5"/>
     </row>
-    <row r="606">
+    <row r="606" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C606" s="5"/>
     </row>
-    <row r="607">
+    <row r="607" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C607" s="5"/>
     </row>
-    <row r="608">
+    <row r="608" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C608" s="5"/>
     </row>
-    <row r="609">
+    <row r="609" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C609" s="5"/>
     </row>
-    <row r="610">
+    <row r="610" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C610" s="5"/>
     </row>
-    <row r="611">
+    <row r="611" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C611" s="5"/>
     </row>
-    <row r="612">
+    <row r="612" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C612" s="5"/>
     </row>
-    <row r="613">
+    <row r="613" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C613" s="5"/>
     </row>
-    <row r="614">
+    <row r="614" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C614" s="5"/>
     </row>
-    <row r="615">
+    <row r="615" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C615" s="5"/>
     </row>
-    <row r="616">
+    <row r="616" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C616" s="5"/>
     </row>
-    <row r="617">
+    <row r="617" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C617" s="5"/>
     </row>
-    <row r="618">
+    <row r="618" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C618" s="5"/>
     </row>
-    <row r="619">
+    <row r="619" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C619" s="5"/>
     </row>
-    <row r="620">
+    <row r="620" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C620" s="5"/>
     </row>
-    <row r="621">
+    <row r="621" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C621" s="5"/>
     </row>
-    <row r="622">
+    <row r="622" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C622" s="5"/>
     </row>
-    <row r="623">
+    <row r="623" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C623" s="5"/>
     </row>
-    <row r="624">
+    <row r="624" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C624" s="5"/>
     </row>
-    <row r="625">
+    <row r="625" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C625" s="5"/>
     </row>
-    <row r="626">
+    <row r="626" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C626" s="5"/>
     </row>
-    <row r="627">
+    <row r="627" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C627" s="5"/>
     </row>
-    <row r="628">
+    <row r="628" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C628" s="5"/>
     </row>
-    <row r="629">
+    <row r="629" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C629" s="5"/>
     </row>
-    <row r="630">
+    <row r="630" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C630" s="5"/>
     </row>
-    <row r="631">
+    <row r="631" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C631" s="5"/>
     </row>
-    <row r="632">
+    <row r="632" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C632" s="5"/>
     </row>
-    <row r="633">
+    <row r="633" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C633" s="5"/>
     </row>
-    <row r="634">
+    <row r="634" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C634" s="5"/>
     </row>
-    <row r="635">
+    <row r="635" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C635" s="5"/>
     </row>
-    <row r="636">
+    <row r="636" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C636" s="5"/>
     </row>
-    <row r="637">
+    <row r="637" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C637" s="5"/>
     </row>
-    <row r="638">
+    <row r="638" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C638" s="5"/>
     </row>
-    <row r="639">
+    <row r="639" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C639" s="5"/>
     </row>
-    <row r="640">
+    <row r="640" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C640" s="5"/>
     </row>
-    <row r="641">
+    <row r="641" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C641" s="5"/>
     </row>
-    <row r="642">
+    <row r="642" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C642" s="5"/>
     </row>
-    <row r="643">
+    <row r="643" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C643" s="5"/>
     </row>
-    <row r="644">
+    <row r="644" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C644" s="5"/>
     </row>
-    <row r="645">
+    <row r="645" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C645" s="5"/>
     </row>
-    <row r="646">
+    <row r="646" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C646" s="5"/>
     </row>
-    <row r="647">
+    <row r="647" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C647" s="5"/>
     </row>
-    <row r="648">
+    <row r="648" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C648" s="5"/>
     </row>
-    <row r="649">
+    <row r="649" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C649" s="5"/>
     </row>
-    <row r="650">
+    <row r="650" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C650" s="5"/>
     </row>
-    <row r="651">
+    <row r="651" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C651" s="5"/>
     </row>
-    <row r="652">
+    <row r="652" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C652" s="5"/>
     </row>
-    <row r="653">
+    <row r="653" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C653" s="5"/>
     </row>
-    <row r="654">
+    <row r="654" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C654" s="5"/>
     </row>
-    <row r="655">
+    <row r="655" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C655" s="5"/>
     </row>
-    <row r="656">
+    <row r="656" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C656" s="5"/>
     </row>
-    <row r="657">
+    <row r="657" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C657" s="5"/>
     </row>
-    <row r="658">
+    <row r="658" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C658" s="5"/>
     </row>
-    <row r="659">
+    <row r="659" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C659" s="5"/>
     </row>
-    <row r="660">
+    <row r="660" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C660" s="5"/>
     </row>
-    <row r="661">
+    <row r="661" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C661" s="5"/>
     </row>
-    <row r="662">
+    <row r="662" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C662" s="5"/>
     </row>
-    <row r="663">
+    <row r="663" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C663" s="5"/>
     </row>
-    <row r="664">
+    <row r="664" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C664" s="5"/>
     </row>
-    <row r="665">
+    <row r="665" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C665" s="5"/>
     </row>
-    <row r="666">
+    <row r="666" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C666" s="5"/>
     </row>
-    <row r="667">
+    <row r="667" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C667" s="5"/>
     </row>
-    <row r="668">
+    <row r="668" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C668" s="5"/>
     </row>
-    <row r="669">
+    <row r="669" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C669" s="5"/>
     </row>
-    <row r="670">
+    <row r="670" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C670" s="5"/>
     </row>
-    <row r="671">
+    <row r="671" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C671" s="5"/>
     </row>
-    <row r="672">
+    <row r="672" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C672" s="5"/>
     </row>
-    <row r="673">
+    <row r="673" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C673" s="5"/>
     </row>
-    <row r="674">
+    <row r="674" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C674" s="5"/>
     </row>
-    <row r="675">
+    <row r="675" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C675" s="5"/>
     </row>
-    <row r="676">
+    <row r="676" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C676" s="5"/>
     </row>
-    <row r="677">
+    <row r="677" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C677" s="5"/>
     </row>
-    <row r="678">
+    <row r="678" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C678" s="5"/>
     </row>
-    <row r="679">
+    <row r="679" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C679" s="5"/>
     </row>
-    <row r="680">
+    <row r="680" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C680" s="5"/>
     </row>
-    <row r="681">
+    <row r="681" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C681" s="5"/>
     </row>
-    <row r="682">
+    <row r="682" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C682" s="5"/>
     </row>
-    <row r="683">
+    <row r="683" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C683" s="5"/>
     </row>
-    <row r="684">
+    <row r="684" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C684" s="5"/>
     </row>
-    <row r="685">
+    <row r="685" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C685" s="5"/>
     </row>
-    <row r="686">
+    <row r="686" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C686" s="5"/>
     </row>
-    <row r="687">
+    <row r="687" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C687" s="5"/>
     </row>
-    <row r="688">
+    <row r="688" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C688" s="5"/>
     </row>
-    <row r="689">
+    <row r="689" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C689" s="5"/>
     </row>
-    <row r="690">
+    <row r="690" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C690" s="5"/>
     </row>
-    <row r="691">
+    <row r="691" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C691" s="5"/>
     </row>
-    <row r="692">
+    <row r="692" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C692" s="5"/>
     </row>
-    <row r="693">
+    <row r="693" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C693" s="5"/>
     </row>
-    <row r="694">
+    <row r="694" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C694" s="5"/>
     </row>
-    <row r="695">
+    <row r="695" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C695" s="5"/>
     </row>
-    <row r="696">
+    <row r="696" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C696" s="5"/>
     </row>
-    <row r="697">
+    <row r="697" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C697" s="5"/>
     </row>
-    <row r="698">
+    <row r="698" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C698" s="5"/>
     </row>
-    <row r="699">
+    <row r="699" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C699" s="5"/>
     </row>
-    <row r="700">
+    <row r="700" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C700" s="5"/>
     </row>
-    <row r="701">
+    <row r="701" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C701" s="5"/>
     </row>
-    <row r="702">
+    <row r="702" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C702" s="5"/>
     </row>
-    <row r="703">
+    <row r="703" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C703" s="5"/>
     </row>
-    <row r="704">
+    <row r="704" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C704" s="5"/>
     </row>
-    <row r="705">
+    <row r="705" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C705" s="5"/>
     </row>
-    <row r="706">
+    <row r="706" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C706" s="5"/>
     </row>
-    <row r="707">
+    <row r="707" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C707" s="5"/>
     </row>
-    <row r="708">
+    <row r="708" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C708" s="5"/>
     </row>
-    <row r="709">
+    <row r="709" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C709" s="5"/>
     </row>
-    <row r="710">
+    <row r="710" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C710" s="5"/>
     </row>
-    <row r="711">
+    <row r="711" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C711" s="5"/>
     </row>
-    <row r="712">
+    <row r="712" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C712" s="5"/>
     </row>
-    <row r="713">
+    <row r="713" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C713" s="5"/>
     </row>
-    <row r="714">
+    <row r="714" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C714" s="5"/>
     </row>
-    <row r="715">
+    <row r="715" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C715" s="5"/>
     </row>
-    <row r="716">
+    <row r="716" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C716" s="5"/>
     </row>
-    <row r="717">
+    <row r="717" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C717" s="5"/>
     </row>
-    <row r="718">
+    <row r="718" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C718" s="5"/>
     </row>
-    <row r="719">
+    <row r="719" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C719" s="5"/>
     </row>
-    <row r="720">
+    <row r="720" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C720" s="5"/>
     </row>
-    <row r="721">
+    <row r="721" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C721" s="5"/>
     </row>
-    <row r="722">
+    <row r="722" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C722" s="5"/>
     </row>
-    <row r="723">
+    <row r="723" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C723" s="5"/>
     </row>
-    <row r="724">
+    <row r="724" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C724" s="5"/>
     </row>
-    <row r="725">
+    <row r="725" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C725" s="5"/>
     </row>
-    <row r="726">
+    <row r="726" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C726" s="5"/>
     </row>
-    <row r="727">
+    <row r="727" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C727" s="5"/>
     </row>
-    <row r="728">
+    <row r="728" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C728" s="5"/>
     </row>
-    <row r="729">
+    <row r="729" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C729" s="5"/>
     </row>
-    <row r="730">
+    <row r="730" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C730" s="5"/>
     </row>
-    <row r="731">
+    <row r="731" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C731" s="5"/>
     </row>
-    <row r="732">
+    <row r="732" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C732" s="5"/>
     </row>
-    <row r="733">
+    <row r="733" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C733" s="5"/>
     </row>
-    <row r="734">
+    <row r="734" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C734" s="5"/>
     </row>
-    <row r="735">
+    <row r="735" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C735" s="5"/>
     </row>
-    <row r="736">
+    <row r="736" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C736" s="5"/>
     </row>
-    <row r="737">
+    <row r="737" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C737" s="5"/>
     </row>
-    <row r="738">
+    <row r="738" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C738" s="5"/>
     </row>
-    <row r="739">
+    <row r="739" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C739" s="5"/>
     </row>
-    <row r="740">
+    <row r="740" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C740" s="5"/>
     </row>
-    <row r="741">
+    <row r="741" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C741" s="5"/>
     </row>
-    <row r="742">
+    <row r="742" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C742" s="5"/>
     </row>
-    <row r="743">
+    <row r="743" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C743" s="5"/>
     </row>
-    <row r="744">
+    <row r="744" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C744" s="5"/>
     </row>
-    <row r="745">
+    <row r="745" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C745" s="5"/>
     </row>
-    <row r="746">
+    <row r="746" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C746" s="5"/>
     </row>
-    <row r="747">
+    <row r="747" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C747" s="5"/>
     </row>
-    <row r="748">
+    <row r="748" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C748" s="5"/>
     </row>
-    <row r="749">
+    <row r="749" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C749" s="5"/>
     </row>
-    <row r="750">
+    <row r="750" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C750" s="5"/>
     </row>
-    <row r="751">
+    <row r="751" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C751" s="5"/>
     </row>
-    <row r="752">
+    <row r="752" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C752" s="5"/>
     </row>
-    <row r="753">
+    <row r="753" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C753" s="5"/>
     </row>
-    <row r="754">
+    <row r="754" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C754" s="5"/>
     </row>
-    <row r="755">
+    <row r="755" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C755" s="5"/>
     </row>
-    <row r="756">
+    <row r="756" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C756" s="5"/>
     </row>
-    <row r="757">
+    <row r="757" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C757" s="5"/>
     </row>
-    <row r="758">
+    <row r="758" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C758" s="5"/>
     </row>
-    <row r="759">
+    <row r="759" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C759" s="5"/>
     </row>
-    <row r="760">
+    <row r="760" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C760" s="5"/>
     </row>
-    <row r="761">
+    <row r="761" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C761" s="5"/>
     </row>
-    <row r="762">
+    <row r="762" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C762" s="5"/>
     </row>
-    <row r="763">
+    <row r="763" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C763" s="5"/>
     </row>
-    <row r="764">
+    <row r="764" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C764" s="5"/>
     </row>
-    <row r="765">
+    <row r="765" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C765" s="5"/>
     </row>
-    <row r="766">
+    <row r="766" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C766" s="5"/>
     </row>
-    <row r="767">
+    <row r="767" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C767" s="5"/>
     </row>
-    <row r="768">
+    <row r="768" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C768" s="5"/>
     </row>
-    <row r="769">
+    <row r="769" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C769" s="5"/>
     </row>
-    <row r="770">
+    <row r="770" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C770" s="5"/>
     </row>
-    <row r="771">
+    <row r="771" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C771" s="5"/>
     </row>
-    <row r="772">
+    <row r="772" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C772" s="5"/>
     </row>
-    <row r="773">
+    <row r="773" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C773" s="5"/>
     </row>
-    <row r="774">
+    <row r="774" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C774" s="5"/>
     </row>
-    <row r="775">
+    <row r="775" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C775" s="5"/>
     </row>
-    <row r="776">
+    <row r="776" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C776" s="5"/>
     </row>
-    <row r="777">
+    <row r="777" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C777" s="5"/>
     </row>
-    <row r="778">
+    <row r="778" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C778" s="5"/>
     </row>
-    <row r="779">
+    <row r="779" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C779" s="5"/>
     </row>
-    <row r="780">
+    <row r="780" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C780" s="5"/>
     </row>
-    <row r="781">
+    <row r="781" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C781" s="5"/>
     </row>
-    <row r="782">
+    <row r="782" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C782" s="5"/>
     </row>
-    <row r="783">
+    <row r="783" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C783" s="5"/>
     </row>
-    <row r="784">
+    <row r="784" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C784" s="5"/>
     </row>
-    <row r="785">
+    <row r="785" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C785" s="5"/>
     </row>
-    <row r="786">
+    <row r="786" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C786" s="5"/>
     </row>
-    <row r="787">
+    <row r="787" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C787" s="5"/>
     </row>
-    <row r="788">
+    <row r="788" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C788" s="5"/>
     </row>
-    <row r="789">
+    <row r="789" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C789" s="5"/>
     </row>
-    <row r="790">
+    <row r="790" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C790" s="5"/>
     </row>
-    <row r="791">
+    <row r="791" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C791" s="5"/>
     </row>
-    <row r="792">
+    <row r="792" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C792" s="5"/>
     </row>
-    <row r="793">
+    <row r="793" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C793" s="5"/>
     </row>
-    <row r="794">
+    <row r="794" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C794" s="5"/>
     </row>
-    <row r="795">
+    <row r="795" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C795" s="5"/>
     </row>
-    <row r="796">
+    <row r="796" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C796" s="5"/>
     </row>
-    <row r="797">
+    <row r="797" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C797" s="5"/>
     </row>
-    <row r="798">
+    <row r="798" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C798" s="5"/>
     </row>
-    <row r="799">
+    <row r="799" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C799" s="5"/>
     </row>
-    <row r="800">
+    <row r="800" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C800" s="5"/>
     </row>
-    <row r="801">
+    <row r="801" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C801" s="5"/>
     </row>
-    <row r="802">
+    <row r="802" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C802" s="5"/>
     </row>
-    <row r="803">
+    <row r="803" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C803" s="5"/>
     </row>
-    <row r="804">
+    <row r="804" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C804" s="5"/>
     </row>
-    <row r="805">
+    <row r="805" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C805" s="5"/>
     </row>
-    <row r="806">
+    <row r="806" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C806" s="5"/>
     </row>
-    <row r="807">
+    <row r="807" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C807" s="5"/>
     </row>
-    <row r="808">
+    <row r="808" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C808" s="5"/>
     </row>
-    <row r="809">
+    <row r="809" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C809" s="5"/>
     </row>
-    <row r="810">
+    <row r="810" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C810" s="5"/>
     </row>
-    <row r="811">
+    <row r="811" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C811" s="5"/>
     </row>
-    <row r="812">
+    <row r="812" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C812" s="5"/>
     </row>
-    <row r="813">
+    <row r="813" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C813" s="5"/>
     </row>
-    <row r="814">
+    <row r="814" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C814" s="5"/>
     </row>
-    <row r="815">
+    <row r="815" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C815" s="5"/>
     </row>
-    <row r="816">
+    <row r="816" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C816" s="5"/>
     </row>
-    <row r="817">
+    <row r="817" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C817" s="5"/>
     </row>
-    <row r="818">
+    <row r="818" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C818" s="5"/>
     </row>
-    <row r="819">
+    <row r="819" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C819" s="5"/>
     </row>
-    <row r="820">
+    <row r="820" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C820" s="5"/>
     </row>
-    <row r="821">
+    <row r="821" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C821" s="5"/>
     </row>
-    <row r="822">
+    <row r="822" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C822" s="5"/>
     </row>
-    <row r="823">
+    <row r="823" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C823" s="5"/>
     </row>
-    <row r="824">
+    <row r="824" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C824" s="5"/>
     </row>
-    <row r="825">
+    <row r="825" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C825" s="5"/>
     </row>
-    <row r="826">
+    <row r="826" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C826" s="5"/>
     </row>
-    <row r="827">
+    <row r="827" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C827" s="5"/>
     </row>
-    <row r="828">
+    <row r="828" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C828" s="5"/>
     </row>
-    <row r="829">
+    <row r="829" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C829" s="5"/>
     </row>
-    <row r="830">
+    <row r="830" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C830" s="5"/>
     </row>
-    <row r="831">
+    <row r="831" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C831" s="5"/>
     </row>
-    <row r="832">
+    <row r="832" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C832" s="5"/>
     </row>
-    <row r="833">
+    <row r="833" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C833" s="5"/>
     </row>
-    <row r="834">
+    <row r="834" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C834" s="5"/>
     </row>
-    <row r="835">
+    <row r="835" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C835" s="5"/>
     </row>
-    <row r="836">
+    <row r="836" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C836" s="5"/>
     </row>
-    <row r="837">
+    <row r="837" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C837" s="5"/>
     </row>
-    <row r="838">
+    <row r="838" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C838" s="5"/>
     </row>
-    <row r="839">
+    <row r="839" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C839" s="5"/>
     </row>
-    <row r="840">
+    <row r="840" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C840" s="5"/>
     </row>
-    <row r="841">
+    <row r="841" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C841" s="5"/>
     </row>
-    <row r="842">
+    <row r="842" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C842" s="5"/>
     </row>
-    <row r="843">
+    <row r="843" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C843" s="5"/>
     </row>
-    <row r="844">
+    <row r="844" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C844" s="5"/>
     </row>
-    <row r="845">
+    <row r="845" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C845" s="5"/>
     </row>
-    <row r="846">
+    <row r="846" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C846" s="5"/>
     </row>
-    <row r="847">
+    <row r="847" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C847" s="5"/>
     </row>
-    <row r="848">
+    <row r="848" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C848" s="5"/>
     </row>
-    <row r="849">
+    <row r="849" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C849" s="5"/>
     </row>
-    <row r="850">
+    <row r="850" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C850" s="5"/>
     </row>
-    <row r="851">
+    <row r="851" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C851" s="5"/>
     </row>
-    <row r="852">
+    <row r="852" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C852" s="5"/>
     </row>
-    <row r="853">
+    <row r="853" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C853" s="5"/>
     </row>
-    <row r="854">
+    <row r="854" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C854" s="5"/>
     </row>
-    <row r="855">
+    <row r="855" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C855" s="5"/>
     </row>
-    <row r="856">
+    <row r="856" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C856" s="5"/>
     </row>
-    <row r="857">
+    <row r="857" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C857" s="5"/>
     </row>
-    <row r="858">
+    <row r="858" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C858" s="5"/>
     </row>
-    <row r="859">
+    <row r="859" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C859" s="5"/>
     </row>
-    <row r="860">
+    <row r="860" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C860" s="5"/>
     </row>
-    <row r="861">
+    <row r="861" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C861" s="5"/>
     </row>
-    <row r="862">
+    <row r="862" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C862" s="5"/>
     </row>
-    <row r="863">
+    <row r="863" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C863" s="5"/>
     </row>
-    <row r="864">
+    <row r="864" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C864" s="5"/>
     </row>
-    <row r="865">
+    <row r="865" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C865" s="5"/>
     </row>
-    <row r="866">
+    <row r="866" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C866" s="5"/>
     </row>
-    <row r="867">
+    <row r="867" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C867" s="5"/>
     </row>
-    <row r="868">
+    <row r="868" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C868" s="5"/>
     </row>
-    <row r="869">
+    <row r="869" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C869" s="5"/>
     </row>
-    <row r="870">
+    <row r="870" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C870" s="5"/>
     </row>
-    <row r="871">
+    <row r="871" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C871" s="5"/>
     </row>
-    <row r="872">
+    <row r="872" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C872" s="5"/>
     </row>
-    <row r="873">
+    <row r="873" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C873" s="5"/>
     </row>
-    <row r="874">
+    <row r="874" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C874" s="5"/>
     </row>
-    <row r="875">
+    <row r="875" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C875" s="5"/>
     </row>
-    <row r="876">
+    <row r="876" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C876" s="5"/>
     </row>
-    <row r="877">
+    <row r="877" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C877" s="5"/>
     </row>
-    <row r="878">
+    <row r="878" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C878" s="5"/>
     </row>
-    <row r="879">
+    <row r="879" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C879" s="5"/>
     </row>
-    <row r="880">
+    <row r="880" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C880" s="5"/>
     </row>
-    <row r="881">
+    <row r="881" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C881" s="5"/>
     </row>
-    <row r="882">
+    <row r="882" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C882" s="5"/>
     </row>
-    <row r="883">
+    <row r="883" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C883" s="5"/>
     </row>
-    <row r="884">
+    <row r="884" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C884" s="5"/>
     </row>
-    <row r="885">
+    <row r="885" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C885" s="5"/>
     </row>
-    <row r="886">
+    <row r="886" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C886" s="5"/>
     </row>
-    <row r="887">
+    <row r="887" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C887" s="5"/>
     </row>
-    <row r="888">
+    <row r="888" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C888" s="5"/>
     </row>
-    <row r="889">
+    <row r="889" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C889" s="5"/>
     </row>
-    <row r="890">
+    <row r="890" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C890" s="5"/>
     </row>
-    <row r="891">
+    <row r="891" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C891" s="5"/>
     </row>
-    <row r="892">
+    <row r="892" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C892" s="5"/>
     </row>
-    <row r="893">
+    <row r="893" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C893" s="5"/>
     </row>
-    <row r="894">
+    <row r="894" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C894" s="5"/>
     </row>
-    <row r="895">
+    <row r="895" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C895" s="5"/>
     </row>
-    <row r="896">
+    <row r="896" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C896" s="5"/>
     </row>
-    <row r="897">
+    <row r="897" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C897" s="5"/>
     </row>
-    <row r="898">
+    <row r="898" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C898" s="5"/>
     </row>
-    <row r="899">
+    <row r="899" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C899" s="5"/>
     </row>
-    <row r="900">
+    <row r="900" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C900" s="5"/>
     </row>
-    <row r="901">
+    <row r="901" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C901" s="5"/>
     </row>
-    <row r="902">
+    <row r="902" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C902" s="5"/>
     </row>
-    <row r="903">
+    <row r="903" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C903" s="5"/>
     </row>
-    <row r="904">
+    <row r="904" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C904" s="5"/>
     </row>
-    <row r="905">
+    <row r="905" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C905" s="5"/>
     </row>
-    <row r="906">
+    <row r="906" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C906" s="5"/>
     </row>
-    <row r="907">
+    <row r="907" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C907" s="5"/>
     </row>
-    <row r="908">
+    <row r="908" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C908" s="5"/>
     </row>
-    <row r="909">
+    <row r="909" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C909" s="5"/>
     </row>
-    <row r="910">
+    <row r="910" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C910" s="5"/>
     </row>
-    <row r="911">
+    <row r="911" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C911" s="5"/>
     </row>
-    <row r="912">
+    <row r="912" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C912" s="5"/>
     </row>
-    <row r="913">
+    <row r="913" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C913" s="5"/>
     </row>
-    <row r="914">
+    <row r="914" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C914" s="5"/>
     </row>
-    <row r="915">
+    <row r="915" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C915" s="5"/>
     </row>
-    <row r="916">
+    <row r="916" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C916" s="5"/>
     </row>
-    <row r="917">
+    <row r="917" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C917" s="5"/>
     </row>
-    <row r="918">
+    <row r="918" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C918" s="5"/>
     </row>
-    <row r="919">
+    <row r="919" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C919" s="5"/>
     </row>
-    <row r="920">
+    <row r="920" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C920" s="5"/>
     </row>
-    <row r="921">
+    <row r="921" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C921" s="5"/>
     </row>
-    <row r="922">
+    <row r="922" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C922" s="5"/>
     </row>
-    <row r="923">
+    <row r="923" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C923" s="5"/>
     </row>
-    <row r="924">
+    <row r="924" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C924" s="5"/>
     </row>
-    <row r="925">
+    <row r="925" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C925" s="5"/>
     </row>
-    <row r="926">
+    <row r="926" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C926" s="5"/>
     </row>
-    <row r="927">
+    <row r="927" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C927" s="5"/>
     </row>
-    <row r="928">
+    <row r="928" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C928" s="5"/>
     </row>
-    <row r="929">
+    <row r="929" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C929" s="5"/>
     </row>
-    <row r="930">
+    <row r="930" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C930" s="5"/>
     </row>
-    <row r="931">
+    <row r="931" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C931" s="5"/>
     </row>
-    <row r="932">
+    <row r="932" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C932" s="5"/>
     </row>
-    <row r="933">
+    <row r="933" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C933" s="5"/>
     </row>
-    <row r="934">
+    <row r="934" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C934" s="5"/>
     </row>
-    <row r="935">
+    <row r="935" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C935" s="5"/>
     </row>
-    <row r="936">
+    <row r="936" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C936" s="5"/>
     </row>
-    <row r="937">
+    <row r="937" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C937" s="5"/>
     </row>
-    <row r="938">
+    <row r="938" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C938" s="5"/>
     </row>
-    <row r="939">
+    <row r="939" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C939" s="5"/>
     </row>
-    <row r="940">
+    <row r="940" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C940" s="5"/>
     </row>
-    <row r="941">
+    <row r="941" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C941" s="5"/>
     </row>
-    <row r="942">
+    <row r="942" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C942" s="5"/>
     </row>
-    <row r="943">
+    <row r="943" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C943" s="5"/>
     </row>
-    <row r="944">
+    <row r="944" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C944" s="5"/>
     </row>
-    <row r="945">
+    <row r="945" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C945" s="5"/>
     </row>
-    <row r="946">
+    <row r="946" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C946" s="5"/>
     </row>
-    <row r="947">
+    <row r="947" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C947" s="5"/>
     </row>
-    <row r="948">
+    <row r="948" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C948" s="5"/>
     </row>
-    <row r="949">
+    <row r="949" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C949" s="5"/>
     </row>
-    <row r="950">
+    <row r="950" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C950" s="5"/>
     </row>
-    <row r="951">
+    <row r="951" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C951" s="5"/>
     </row>
-    <row r="952">
+    <row r="952" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C952" s="5"/>
     </row>
-    <row r="953">
+    <row r="953" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C953" s="5"/>
     </row>
-    <row r="954">
+    <row r="954" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C954" s="5"/>
     </row>
-    <row r="955">
+    <row r="955" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C955" s="5"/>
     </row>
-    <row r="956">
+    <row r="956" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C956" s="5"/>
     </row>
-    <row r="957">
+    <row r="957" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C957" s="5"/>
     </row>
-    <row r="958">
+    <row r="958" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C958" s="5"/>
     </row>
-    <row r="959">
+    <row r="959" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C959" s="5"/>
     </row>
-    <row r="960">
+    <row r="960" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C960" s="5"/>
     </row>
-    <row r="961">
+    <row r="961" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C961" s="5"/>
     </row>
-    <row r="962">
+    <row r="962" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C962" s="5"/>
     </row>
-    <row r="963">
+    <row r="963" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C963" s="5"/>
     </row>
-    <row r="964">
+    <row r="964" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C964" s="5"/>
     </row>
-    <row r="965">
+    <row r="965" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C965" s="5"/>
     </row>
-    <row r="966">
+    <row r="966" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C966" s="5"/>
     </row>
-    <row r="967">
+    <row r="967" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C967" s="5"/>
     </row>
-    <row r="968">
+    <row r="968" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C968" s="5"/>
     </row>
-    <row r="969">
+    <row r="969" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C969" s="5"/>
     </row>
-    <row r="970">
+    <row r="970" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C970" s="5"/>
     </row>
-    <row r="971">
+    <row r="971" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C971" s="5"/>
     </row>
-    <row r="972">
+    <row r="972" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C972" s="5"/>
     </row>
-    <row r="973">
+    <row r="973" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C973" s="5"/>
     </row>
-    <row r="974">
+    <row r="974" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C974" s="5"/>
     </row>
-    <row r="975">
+    <row r="975" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C975" s="5"/>
     </row>
-    <row r="976">
+    <row r="976" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C976" s="5"/>
     </row>
-    <row r="977">
+    <row r="977" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C977" s="5"/>
     </row>
-    <row r="978">
+    <row r="978" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C978" s="5"/>
     </row>
-    <row r="979">
+    <row r="979" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C979" s="5"/>
     </row>
-    <row r="980">
+    <row r="980" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C980" s="5"/>
     </row>
-    <row r="981">
+    <row r="981" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C981" s="5"/>
     </row>
-    <row r="982">
+    <row r="982" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C982" s="5"/>
     </row>
-    <row r="983">
+    <row r="983" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C983" s="5"/>
     </row>
-    <row r="984">
+    <row r="984" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C984" s="5"/>
     </row>
-    <row r="985">
+    <row r="985" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C985" s="5"/>
     </row>
-    <row r="986">
+    <row r="986" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C986" s="5"/>
     </row>
-    <row r="987">
+    <row r="987" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C987" s="5"/>
     </row>
-    <row r="988">
+    <row r="988" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C988" s="5"/>
     </row>
-    <row r="989">
+    <row r="989" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C989" s="5"/>
     </row>
-    <row r="990">
+    <row r="990" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C990" s="5"/>
     </row>
-    <row r="991">
+    <row r="991" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C991" s="5"/>
     </row>
-    <row r="992">
+    <row r="992" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C992" s="5"/>
     </row>
-    <row r="993">
+    <row r="993" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C993" s="5"/>
     </row>
-    <row r="994">
+    <row r="994" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C994" s="5"/>
     </row>
-    <row r="995">
+    <row r="995" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C995" s="5"/>
     </row>
-    <row r="996">
+    <row r="996" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C996" s="5"/>
     </row>
-    <row r="997">
+    <row r="997" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C997" s="5"/>
     </row>
-    <row r="998">
+    <row r="998" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C998" s="5"/>
     </row>
-    <row r="999">
+    <row r="999" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C999" s="5"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C1000" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>